--- a/template/list_id.xlsx
+++ b/template/list_id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soya Kawasaki\source\repos\tetris_emulatorDX_AI\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soya Kawasaki\source\repos\tetris_emulatorDX_AI(実行用フォルダ)\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB21AD45-115A-4A5F-BB1E-AE5C0E720CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1832A4C-87B4-4974-B907-3206B04E8157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_id" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="167">
   <si>
     <t>BstdL_1-1.ttrp</t>
   </si>
@@ -58,57 +58,6 @@
     <t>hotcakeS_2-2.ttrp</t>
   </si>
   <si>
-    <t>hotcakeZ_3-1(LOTJIS)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(LTSJOI)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(OLSJTI)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(SLTIJO)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TJLSIO)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(LOJSIT)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(LSIOJT)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(OLJIST)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(OLJSIT)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TJIOLS)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TJOLIS)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TLSIJO)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TLSOIJ)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TOLJSI)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TOSJLI)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TSILOJ)</t>
-  </si>
-  <si>
-    <t>hotcakeZ_3-1(TSLJOI)</t>
-  </si>
-  <si>
     <t>gamusiroZ_1-1.ttrp</t>
   </si>
   <si>
@@ -164,72 +113,6 @@
   </si>
   <si>
     <t>newDT_JZ_5-1.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_I_OL_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_I_LI_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_I_ILO_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_O_JO_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_O_OJ_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_S_OS_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_S_SO_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_Z_OZ_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_Z_ZO_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_J_OJ_ZS_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_J_OJ_SZ_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_J_LO_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_J_JO_OL_ZS_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_J_JO_OL_SZ_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_L_OL_SZ_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_L_OL_ZS_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_L_JO_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_L_LO_OJ_SZ_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_L_LO_OJ_ZS_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_T_OL_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_I_LO_LS_4.ttrp</t>
-  </si>
-  <si>
-    <t>3rPC_I_SL_LO_4.ttrp</t>
   </si>
   <si>
     <t>ID</t>
@@ -261,31 +144,14 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>HachimitsuS_2-1_I.ttrp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>HachimitsuS_2-2_I.ttrp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>HachimitsuS_2-3_T.ttrp</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>HachimitsuS_2-3_I.ttrp</t>
-  </si>
-  <si>
-    <t>HachimitsuS_2-4_I.ttrp</t>
-  </si>
-  <si>
     <t>HachimitsuS_3PC-S_01.ttrp</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>HachimitsuS_3PC-S_02.ttrp</t>
-  </si>
-  <si>
     <t>HachimitsuS_3PC-S_03.ttrp</t>
   </si>
   <si>
@@ -322,9 +188,6 @@
   </si>
   <si>
     <t>HachimitsuS_3PC-O_04.ttrp</t>
-  </si>
-  <si>
-    <t>HachimitsuS_3PC-O_05.ttrp</t>
   </si>
   <si>
     <t>HachimitsuS_3PC-O_06.ttrp</t>
@@ -462,6 +325,282 @@
   </si>
   <si>
     <t>HachimitsuZ_2-4_T.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-S_07.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-S_08.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-S_09.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-S_10.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-O_05.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-O_07.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-O_08.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-O_09.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-O_10.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-Z_07.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-Z_08.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-Z_09.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-Z_10.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-S_07.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-S_08.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-S_09.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-S_10.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-Z_07.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-Z_08.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-Z_09.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-Z_10.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-O_07.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-O_08.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-O_09.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuZ_3PC-O_10.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_3PC-S_02.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3022~3051</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3002~3004</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3054~3056</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3057~3064</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_I_OL_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_I_LI_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_I_ILO_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_O_JO_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_O_OJ_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_S_OS_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_S_SO_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_Z_OZ_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_Z_ZO_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_J_OJ_ZS_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_J_OJ_SZ_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_J_LO_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_J_JO_OL_ZS_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_J_JO_OL_SZ_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_L_OL_SZ_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_L_OL_ZS_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_L_JO_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_L_LO_OJ_SZ_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_L_LO_OJ_ZS_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_T_OL_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_I_LO_LS_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rPC_I_SL_LO_SET3.ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(LOTJIS).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(LTSJOI).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(OLSJTI).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(SLTIJO).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TJLSIO).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(LOJSIT).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(LSIOJT).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(OLJIST).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(OLJSIT).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TJIOLS).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TJOLIS).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TLSIJO).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TLSOIJ).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TOLJSI).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TOSJLI).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TSILOJ).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>hotcakeZ_3-1(TSLJOI).ttrp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HachimitsuS_2-5_T.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_2-6_T.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_2-7_T.ttrp</t>
+  </si>
+  <si>
+    <t>HachimitsuS_2-8_T.ttrp</t>
+  </si>
+  <si>
+    <t>3005~3008</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3009~3010</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3011~3012</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -469,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,14 +790,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1144,14 +1275,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1510,9 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1524,7 +1655,7 @@
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="26.78515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="6.0703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4" style="8" customWidth="1"/>
+    <col min="12" max="12" width="4" style="10" customWidth="1"/>
     <col min="13" max="26" width="4" style="7" customWidth="1"/>
     <col min="27" max="27" width="4.2109375" style="7" customWidth="1"/>
     <col min="28" max="29" width="4.2109375" style="1" customWidth="1"/>
@@ -1533,10 +1664,10 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1544,13 +1675,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.65">
@@ -1564,7 +1695,7 @@
         <v>3000</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.65">
@@ -1577,17 +1708,14 @@
       <c r="I3" s="2">
         <v>3001</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>127</v>
+      <c r="J3" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="8">
-        <v>3001</v>
-      </c>
-      <c r="M3" s="7">
-        <v>3002</v>
+        <v>85</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.65">
@@ -1600,11 +1728,14 @@
       <c r="I4" s="2">
         <v>3002</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>73</v>
+      <c r="J4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.65">
@@ -1617,11 +1748,14 @@
       <c r="I5" s="2">
         <v>3003</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>74</v>
+      <c r="J5" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.65">
@@ -1634,35 +1768,14 @@
       <c r="I6" s="2">
         <v>3004</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>132</v>
+      <c r="J6" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="8">
-        <v>3005</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3006</v>
-      </c>
-      <c r="N6" s="7">
-        <v>3007</v>
-      </c>
-      <c r="O6" s="7">
-        <v>3008</v>
-      </c>
-      <c r="P6" s="7">
-        <v>3009</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>3010</v>
-      </c>
-      <c r="R6" s="7">
-        <v>3011</v>
-      </c>
-      <c r="S6" s="7">
-        <v>3012</v>
+      <c r="L6" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.65">
@@ -1675,132 +1788,34 @@
       <c r="I7" s="2">
         <v>3005</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>75</v>
+      <c r="J7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M7" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O7" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R7" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S7" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T7" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U7" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V7" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W7" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X7" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.65">
       <c r="B8" s="5"/>
       <c r="I8" s="2">
         <v>3006</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>134</v>
+      <c r="J8" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O8" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P8" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R8" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S8" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T8" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U8" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V8" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W8" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X8" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.65">
       <c r="A9" s="1">
@@ -1812,66 +1827,17 @@
       <c r="I9" s="2">
         <v>3007</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>78</v>
+      <c r="J9" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M9" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N9" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O9" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P9" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R9" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S9" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T9" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U9" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V9" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W9" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X9" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.65">
       <c r="A10" s="1">
@@ -1883,66 +1849,17 @@
       <c r="I10" s="2">
         <v>3008</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>131</v>
+      <c r="J10" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O10" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P10" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R10" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S10" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T10" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U10" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V10" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W10" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X10" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.65">
       <c r="A11" s="1">
@@ -1954,66 +1871,17 @@
       <c r="I11" s="2">
         <v>3009</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>76</v>
+      <c r="J11" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O11" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P11" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R11" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S11" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T11" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U11" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V11" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W11" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X11" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.65">
       <c r="A12" s="1">
@@ -2025,66 +1893,17 @@
       <c r="I12" s="2">
         <v>3010</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>77</v>
+      <c r="J12" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O12" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P12" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R12" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S12" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T12" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U12" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V12" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W12" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X12" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.65">
       <c r="A13" s="1">
@@ -2096,66 +1915,17 @@
       <c r="I13" s="2">
         <v>3011</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>79</v>
+      <c r="J13" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
       </c>
-      <c r="L13" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O13" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P13" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R13" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S13" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T13" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U13" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V13" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W13" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X13" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.65">
       <c r="A14" s="1">
@@ -2167,66 +1937,17 @@
       <c r="I14" s="2">
         <v>3012</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>80</v>
+      <c r="J14" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="8">
-        <v>3022</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O14" s="7">
-        <v>3025</v>
-      </c>
-      <c r="P14" s="7">
-        <v>3026</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>3027</v>
-      </c>
-      <c r="R14" s="7">
-        <v>3028</v>
-      </c>
-      <c r="S14" s="7">
-        <v>3029</v>
-      </c>
-      <c r="T14" s="7">
-        <v>3030</v>
-      </c>
-      <c r="U14" s="7">
-        <v>3031</v>
-      </c>
-      <c r="V14" s="7">
-        <v>3032</v>
-      </c>
-      <c r="W14" s="7">
-        <v>3033</v>
-      </c>
-      <c r="X14" s="7">
-        <v>3034</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>3035</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>3036</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>3037</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>3038</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>3039</v>
-      </c>
+      <c r="L14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.65">
       <c r="B15" s="5"/>
@@ -2242,7 +1963,7 @@
         <v>2101</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2">
         <v>3014</v>
@@ -2254,7 +1975,7 @@
         <v>2102</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2">
         <v>3015</v>
@@ -2266,7 +1987,7 @@
         <v>2103</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="I18" s="2">
         <v>3016</v>
@@ -2278,7 +1999,7 @@
         <v>2104</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="I19" s="2">
         <v>3017</v>
@@ -2290,7 +2011,7 @@
         <v>2105</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I20" s="2">
         <v>3018</v>
@@ -2302,7 +2023,7 @@
         <v>2106</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I21" s="2">
         <v>3019</v>
@@ -2314,7 +2035,7 @@
         <v>2107</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I22" s="2">
         <v>3020</v>
@@ -2326,7 +2047,7 @@
         <v>2108</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="I23" s="2">
         <v>3021</v>
@@ -2338,13 +2059,13 @@
         <v>2109</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I24" s="2">
         <v>3022</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>81</v>
+      <c r="J24" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="K24" s="1">
         <v>3</v>
@@ -2355,13 +2076,13 @@
         <v>2110</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I25" s="2">
         <v>3023</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>82</v>
+      <c r="J25" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="K25" s="1">
         <v>3</v>
@@ -2372,13 +2093,13 @@
         <v>2111</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="I26" s="2">
         <v>3024</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>83</v>
+      <c r="J26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="K26" s="1">
         <v>3</v>
@@ -2389,13 +2110,13 @@
         <v>2112</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I27" s="2">
         <v>3025</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>84</v>
+      <c r="J27" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="K27" s="1">
         <v>3</v>
@@ -2406,13 +2127,13 @@
         <v>2113</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="I28" s="2">
         <v>3026</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>85</v>
+      <c r="J28" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="K28" s="1">
         <v>3</v>
@@ -2423,13 +2144,13 @@
         <v>2114</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I29" s="2">
         <v>3027</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>86</v>
+      <c r="J29" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="K29" s="1">
         <v>3</v>
@@ -2440,13 +2161,13 @@
         <v>2115</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I30" s="2">
         <v>3028</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>87</v>
+      <c r="J30" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="K30" s="1">
         <v>3</v>
@@ -2457,13 +2178,13 @@
         <v>2116</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="I31" s="2">
         <v>3029</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>88</v>
+      <c r="J31" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="K31" s="1">
         <v>3</v>
@@ -2474,13 +2195,13 @@
         <v>2117</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="I32" s="2">
         <v>3030</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K32" s="1">
         <v>3</v>
@@ -2492,7 +2213,7 @@
         <v>3031</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K33" s="1">
         <v>3</v>
@@ -2503,13 +2224,13 @@
         <v>1101</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I34" s="2">
         <v>3032</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="K34" s="1">
         <v>3</v>
@@ -2520,13 +2241,13 @@
         <v>1102</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2">
         <v>3033</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K35" s="1">
         <v>3</v>
@@ -2537,13 +2258,13 @@
         <v>1103</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I36" s="2">
         <v>3034</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="K36" s="1">
         <v>3</v>
@@ -2554,13 +2275,13 @@
         <v>1104</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2">
         <v>3035</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K37" s="1">
         <v>3</v>
@@ -2571,13 +2292,13 @@
         <v>1105</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I38" s="2">
         <v>3036</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K38" s="1">
         <v>3</v>
@@ -2588,13 +2309,13 @@
         <v>1106</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2">
         <v>3037</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="K39" s="1">
         <v>3</v>
@@ -2605,13 +2326,13 @@
         <v>1107</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I40" s="2">
         <v>3038</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>3</v>
@@ -2622,13 +2343,13 @@
         <v>1108</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2">
         <v>3039</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K41" s="1">
         <v>3</v>
@@ -2639,347 +2360,380 @@
       <c r="I42" s="2">
         <v>3040</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A43" s="1">
         <v>1201</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2">
         <v>3041</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A44" s="1">
         <v>1204</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I44" s="2">
         <v>3042</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A45" s="1">
         <v>1207</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I45" s="2">
         <v>3043</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A46" s="1">
         <v>1210</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I46" s="2">
         <v>3044</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A47" s="1">
         <v>1211</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I47" s="2">
         <v>3045</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A48" s="1">
         <v>1213</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I48" s="2">
         <v>3046</v>
       </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="J48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A49" s="1">
         <v>1216</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I49" s="2">
         <v>3047</v>
       </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="J49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A50" s="1">
         <v>1219</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I50" s="2">
         <v>3048</v>
       </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="J50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A51" s="1">
         <v>1222</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I51" s="2">
         <v>3049</v>
       </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="J51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A52" s="1">
         <v>1225</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I52" s="2">
         <v>3050</v>
       </c>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="J52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A53" s="1">
         <v>1228</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I53" s="2">
         <v>3051</v>
       </c>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="J53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.65">
       <c r="B54" s="5"/>
       <c r="I54" s="2">
         <v>3052</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A55" s="1">
         <v>10001</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="I55" s="2">
         <v>3053</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>128</v>
+      <c r="J55" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L55" s="8">
-        <v>3054</v>
-      </c>
-      <c r="M55" s="7">
-        <v>3055</v>
-      </c>
-      <c r="N55" s="7">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.65">
+        <v>85</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A56" s="1">
         <v>10002</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="I56" s="2">
         <v>3054</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A57" s="1">
         <v>10003</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I57" s="2">
         <v>3055</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="K57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A58" s="1">
         <v>10004</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="I58" s="2">
         <v>3056</v>
       </c>
-      <c r="J58" s="9" t="s">
-        <v>133</v>
+      <c r="J58" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="K58" s="1">
         <v>1</v>
       </c>
-      <c r="L58" s="8">
-        <v>3057</v>
-      </c>
-      <c r="M58" s="7">
-        <v>3058</v>
-      </c>
-      <c r="N58" s="7">
-        <v>3059</v>
-      </c>
-      <c r="O58" s="7">
-        <v>3060</v>
-      </c>
-      <c r="P58" s="7">
-        <v>3061</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>3062</v>
-      </c>
-      <c r="R58" s="7">
-        <v>3063</v>
-      </c>
-      <c r="S58" s="7">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="L58" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A59" s="1">
         <v>10005</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="I59" s="2">
         <v>3057</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>100</v>
+      <c r="J59" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A60" s="1">
         <v>10006</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="I60" s="2">
         <v>3058</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>101</v>
+      <c r="J60" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A61" s="1">
         <v>10007</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="I61" s="2">
         <v>3059</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>102</v>
+      <c r="J61" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A62" s="1">
         <v>10008</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="I62" s="2">
         <v>3060</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>135</v>
+      <c r="J62" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A63" s="1">
         <v>10009</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="I63" s="2">
         <v>3061</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A64" s="1">
         <v>10010</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="I64" s="2">
         <v>3062</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
@@ -2990,13 +2744,13 @@
         <v>10011</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="I65" s="2">
         <v>3063</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K65" s="1">
         <v>2</v>
@@ -3007,13 +2761,13 @@
         <v>10012</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="I66" s="2">
         <v>3064</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
@@ -3024,7 +2778,7 @@
         <v>10013</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="I67" s="2">
         <v>3065</v>
@@ -3036,7 +2790,7 @@
         <v>10014</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="I68" s="2">
         <v>3066</v>
@@ -3048,7 +2802,7 @@
         <v>10015</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="I69" s="2">
         <v>3067</v>
@@ -3060,7 +2814,7 @@
         <v>10016</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="I70" s="2">
         <v>3068</v>
@@ -3072,7 +2826,7 @@
         <v>10017</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="I71" s="2">
         <v>3069</v>
@@ -3084,7 +2838,7 @@
         <v>10018</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="I72" s="2">
         <v>3070</v>
@@ -3096,7 +2850,7 @@
         <v>10019</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="I73" s="2">
         <v>3071</v>
@@ -3108,7 +2862,7 @@
         <v>10020</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="I74" s="2">
         <v>3072</v>
@@ -3120,7 +2874,7 @@
         <v>10021</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="I75" s="2">
         <v>3073</v>
@@ -3132,13 +2886,16 @@
         <v>10022</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="I76" s="2">
         <v>3074</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
+      </c>
+      <c r="K76" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.65">
@@ -3147,7 +2904,10 @@
         <v>3075</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="K77" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.65">
@@ -3156,7 +2916,10 @@
         <v>3076</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="K78" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.65">
@@ -3165,7 +2928,10 @@
         <v>3077</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>112</v>
+        <v>79</v>
+      </c>
+      <c r="K79" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.65">
@@ -3174,199 +2940,313 @@
         <v>3078</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.65">
+        <v>80</v>
+      </c>
+      <c r="K80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B81" s="5"/>
       <c r="I81" s="2">
         <v>3079</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.65">
+        <v>81</v>
+      </c>
+      <c r="K81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B82" s="5"/>
       <c r="I82" s="2">
         <v>3080</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.65">
+        <v>112</v>
+      </c>
+      <c r="K82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B83" s="5"/>
       <c r="I83" s="2">
         <v>3081</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.65">
+        <v>113</v>
+      </c>
+      <c r="K83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B84" s="5"/>
       <c r="I84" s="2">
         <v>3082</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.65">
+        <v>114</v>
+      </c>
+      <c r="K84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B85" s="5"/>
       <c r="I85" s="2">
         <v>3083</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.65">
+        <v>115</v>
+      </c>
+      <c r="K85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B86" s="5"/>
       <c r="I86" s="2">
         <v>3084</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.65">
+        <v>70</v>
+      </c>
+      <c r="K86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B87" s="5"/>
       <c r="I87" s="2">
         <v>3085</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.65">
+        <v>71</v>
+      </c>
+      <c r="K87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B88" s="5"/>
       <c r="I88" s="2">
         <v>3086</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.65">
+        <v>72</v>
+      </c>
+      <c r="K88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B89" s="5"/>
       <c r="I89" s="2">
         <v>3087</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.65">
+        <v>73</v>
+      </c>
+      <c r="K89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B90" s="5"/>
       <c r="I90" s="2">
         <v>3088</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.65">
+        <v>74</v>
+      </c>
+      <c r="K90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B91" s="5"/>
       <c r="I91" s="2">
         <v>3089</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.65">
+        <v>75</v>
+      </c>
+      <c r="K91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B92" s="5"/>
       <c r="I92" s="2">
         <v>3090</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.65">
+        <v>108</v>
+      </c>
+      <c r="K92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B93" s="5"/>
       <c r="I93" s="2">
         <v>3091</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.65">
+        <v>109</v>
+      </c>
+      <c r="K93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B94" s="5"/>
       <c r="I94" s="2">
         <v>3092</v>
       </c>
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J94" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B95" s="5"/>
       <c r="I95" s="2">
         <v>3093</v>
       </c>
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J95" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B96" s="5"/>
       <c r="I96" s="2">
         <v>3094</v>
       </c>
-      <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J96" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B97" s="5"/>
       <c r="I97" s="2">
         <v>3095</v>
       </c>
-      <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J97" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B98" s="5"/>
       <c r="I98" s="2">
         <v>3096</v>
       </c>
-      <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J98" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B99" s="5"/>
       <c r="I99" s="2">
         <v>3097</v>
       </c>
-      <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J99" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B100" s="5"/>
       <c r="I100" s="2">
         <v>3098</v>
       </c>
-      <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J100" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B101" s="5"/>
       <c r="I101" s="2">
         <v>3099</v>
       </c>
-      <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J101" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.65">
       <c r="B102" s="5"/>
       <c r="I102" s="2">
         <v>3100</v>
       </c>
-      <c r="J102" s="5"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.65">
-      <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.65">
-      <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.65">
-      <c r="J105" s="5"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.65">
+      <c r="J102" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.65">
+      <c r="I103" s="2">
+        <v>3101</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.65">
+      <c r="I104" s="2">
+        <v>3102</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.65">
+      <c r="I105" s="2">
+        <v>3103</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.65">
+      <c r="I106" s="2">
+        <v>3104</v>
+      </c>
       <c r="J106" s="5"/>
     </row>
   </sheetData>
